--- a/biology/Microbiologie/Limnohabitans/Limnohabitans.xlsx
+++ b/biology/Microbiologie/Limnohabitans/Limnohabitans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limnohabitans est un genre de bactéries de la famille des Comamonadaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactéries de ce genre sont aérobies ou anaérobies facultatives, chimio-organotrophes, oxydase positives et catalase positives. Les cellules sont non-pigmentées et et non motiles et ont une forme de bacilles incurvés.
 </t>
@@ -542,14 +556,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Limnohabitans Hahn et al. 2010[1].
-L'espèce type est : Limnohabitans curvus Hahn et al. 2010[1].
-Étymologie
-L'étymologie du genre Limnohabitans est la suivante : Lim.no.ha’bi.tans. Gr. fem. n. limnê, lac; L. pres. part. habitans, habitant; N.L. masc. n. Limnohabitans, habitant du lac, ce qui fait référence au type d'écosystème dans lequel la souche type a d'abord été isolée[1].
-Liste des espèces
-Selon LPSN  (5 juillet 2023)[1], le genre Limnohabitans comprend les 5 espèces suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Limnohabitans Hahn et al. 2010.
+L'espèce type est : Limnohabitans curvus Hahn et al. 2010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Limnohabitans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Limnohabitans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du genre Limnohabitans est la suivante : Lim.no.ha’bi.tans. Gr. fem. n. limnê, lac; L. pres. part. habitans, habitant; N.L. masc. n. Limnohabitans, habitant du lac, ce qui fait référence au type d'écosystème dans lequel la souche type a d'abord été isolée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Limnohabitans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Limnohabitans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (5 juillet 2023), le genre Limnohabitans comprend les 5 espèces suivantes :
 Limnohabitans australis Hahn et al. 2010
 Limnohabitans curvus Hahn et al. 2010
 Limnohabitans parvus Kasalický et al. 2010
